--- a/Project.WebApplication/TemplateFile/合同上传模版.xlsx
+++ b/Project.WebApplication/TemplateFile/合同上传模版.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$2</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,19 +49,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新签订</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>甲方（部门编号）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2016-05-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.有效</t>
+  </si>
+  <si>
+    <t>1.新签订</t>
+  </si>
+  <si>
+    <t>22222333</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +414,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -417,7 +422,9 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9" style="1"/>
+    <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="22.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -442,7 +449,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -450,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1111</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="G2" s="1">
         <v>12919</v>
@@ -470,6 +477,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" prompt="新签订,续订,变更,终止" sqref="D1:D1048576">
+      <formula1>"1.新签订,2.续订,3.变更,4.终止"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>"1.有效,2.无效"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
